--- a/input.xlsx
+++ b/input.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
   <si>
     <t>first_name</t>
   </si>
@@ -48,6 +48,36 @@
   </si>
   <si>
     <t>Thao@gmail.com</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>vat</t>
+  </si>
+  <si>
+    <t>reciever</t>
+  </si>
+  <si>
+    <t>hanoi</t>
+  </si>
+  <si>
+    <t>thao</t>
+  </si>
+  <si>
+    <t>thao company</t>
+  </si>
+  <si>
+    <t>baby_birthdate</t>
+  </si>
+  <si>
+    <t>31/08/2018</t>
   </si>
 </sst>
 </file>
@@ -376,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -387,13 +417,14 @@
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="45.85546875" customWidth="1"/>
-    <col min="7" max="7" width="26.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="45.85546875" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -404,13 +435,31 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -420,16 +469,94 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2">
         <v>969123456</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2">
+        <v>111</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
